--- a/baekjoon/b16993/b16993.xlsx
+++ b/baekjoon/b16993/b16993.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PJ\cote\baekjoon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PJ\cote\baekjoon\b16993\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2544F09-F224-4F2B-BECD-9CFB6ECD2626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BF387E-B9FF-4351-A775-EB5D1555F909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{92B1677B-41ED-4418-B3EA-644515C3FC64}"/>
+    <workbookView xWindow="4455" yWindow="2115" windowWidth="28800" windowHeight="15885" xr2:uid="{92B1677B-41ED-4418-B3EA-644515C3FC64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A2:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
